--- a/data/outputs/management_elsevier/14.xlsx
+++ b/data/outputs/management_elsevier/14.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:BU29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +935,12 @@
           <t>2-s2.0-84930425536</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>3697</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1135,6 +1151,12 @@
         <is>
           <t>2-s2.0-84951292280</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>1023</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1339,6 +1361,12 @@
           <t>2-s2.0-84948799926</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1828</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1558,6 +1586,12 @@
           <t>2-s2.0-84951270444</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1920</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1768,6 +1802,12 @@
         <is>
           <t>2-s2.0-84951275099</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>3269</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1972,6 +2012,12 @@
           <t>2-s2.0-84936971048</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>5865</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2185,6 +2231,12 @@
           <t>2-s2.0-84947736859</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>4414</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2404,6 +2456,12 @@
           <t>2-s2.0-84960213042</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>8699</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2622,6 +2680,12 @@
         <is>
           <t>2-s2.0-84960224002</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>1870</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2832,6 +2896,12 @@
           <t>2-s2.0-84960271037</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1958</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3049,6 +3119,12 @@
           <t>2-s2.0-84960268644</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>6718</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3269,6 +3345,12 @@
         <is>
           <t>2-s2.0-84959573212</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>8129</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -3481,6 +3563,12 @@
           <t>2-s2.0-84955459152</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>8130</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3697,6 +3785,12 @@
         <is>
           <t>2-s2.0-84960228694</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>3531</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -3901,6 +3995,12 @@
           <t>2-s2.0-84947039881</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2109</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4111,6 +4211,12 @@
         <is>
           <t>2-s2.0-84947047695</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>1677</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -4315,6 +4421,12 @@
           <t>2-s2.0-84947043049</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2189</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4514,6 +4626,12 @@
           <t>2-s2.0-84947040485</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2610</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4721,6 +4839,12 @@
           <t>2-s2.0-84947023032</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2292</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4936,6 +5060,12 @@
           <t>2-s2.0-84947040486</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>3037</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5147,6 +5277,12 @@
           <t>2-s2.0-84947043347</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2043</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5367,6 +5503,12 @@
         <is>
           <t>2-s2.0-84925044555</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>16952</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -5571,6 +5713,12 @@
           <t>2-s2.0-84925156540</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2354</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5782,6 +5930,12 @@
           <t>2-s2.0-84925140752</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1861</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5992,6 +6146,12 @@
         <is>
           <t>2-s2.0-84925067420</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>4767</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -6196,6 +6356,12 @@
           <t>2-s2.0-84925136663</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2244</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6415,6 +6581,12 @@
           <t>2-s2.0-84925190624</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>7006</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6626,6 +6798,12 @@
           <t>2-s2.0-84925091645</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1802</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
